--- a/eprop/result.xlsx
+++ b/eprop/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilove\Documents\GitHub\eprop-reinforcement-learning\eprop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0EB1BE-45CC-46C5-86C6-FB8B8B7BAA6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E708B-15F5-43E7-826B-7A1BDD3C97ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,110 +716,263 @@
       <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="9">
-        <v>0.92578125</v>
+      <c r="B18" s="10">
+        <v>0.8984375</v>
       </c>
       <c r="C18" s="6"/>
+      <c r="D18" s="10">
+        <v>0.83984375</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="9">
-        <v>0.8046875</v>
+      <c r="B19" s="10">
+        <v>0.78515625</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="D19" s="10">
+        <v>0.91796875</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="9">
-        <v>0.828125</v>
+      <c r="B20" s="10">
+        <v>0.87109375</v>
       </c>
       <c r="C20" s="6"/>
+      <c r="D20" s="10">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.49609375</v>
+      <c r="B21" s="10">
+        <v>0.875</v>
       </c>
       <c r="C21" s="7"/>
+      <c r="D21" s="10">
+        <v>0.90625</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>5</v>
       </c>
-      <c r="B22" s="9">
-        <v>0.6875</v>
+      <c r="B22" s="10">
+        <v>0.55859375</v>
       </c>
       <c r="C22" s="7"/>
+      <c r="D22" s="10">
+        <v>0.8828125</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>6</v>
       </c>
-      <c r="B23" s="9">
-        <v>0.75</v>
+      <c r="B23" s="10">
+        <v>0.75390625</v>
       </c>
       <c r="C23" s="7"/>
+      <c r="D23" s="10">
+        <v>0.80078125</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7</v>
       </c>
-      <c r="B24" s="9">
-        <v>0.82421875</v>
+      <c r="B24" s="10">
+        <v>0.84765625</v>
       </c>
       <c r="C24" s="7"/>
+      <c r="D24" s="10">
+        <v>0.88671875</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>8</v>
       </c>
-      <c r="B25" s="9">
-        <v>0.8515625</v>
+      <c r="B25" s="10">
+        <v>0.58984375</v>
       </c>
       <c r="C25" s="7"/>
+      <c r="D25" s="10">
+        <v>0.97265625</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>9</v>
       </c>
-      <c r="B26" s="9">
-        <v>0.59375</v>
+      <c r="B26" s="10">
+        <v>0.9609375</v>
       </c>
       <c r="C26" s="7"/>
+      <c r="D26" s="10">
+        <v>0.94921875</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>10</v>
       </c>
-      <c r="B27" s="9">
-        <v>0.7890625</v>
+      <c r="B27" s="10">
+        <v>0.72265625</v>
       </c>
       <c r="C27" s="7"/>
+      <c r="D27" s="10">
+        <v>0.6484375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>11</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.51953125</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.890625</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="8">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.79296875</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.9453125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>14</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.890625</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>15</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.94921875</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>16</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.9453125</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>17</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.76953125</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>19</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.79296875</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.9453125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>20</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.8203125</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.90234375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B29">
-        <f>AVERAGE(B18:B27)</f>
-        <v>0.75507812500000004</v>
-      </c>
-      <c r="C29" t="e">
+      <c r="B42">
+        <f>AVERAGE(B18:B37)</f>
+        <v>0.80781250000000004</v>
+      </c>
+      <c r="C42" t="e">
         <f>AVERAGE(C18:C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" t="e">
-        <f>AVERAGE(D18:D27)</f>
-        <v>#DIV/0!</v>
+      <c r="D42">
+        <f>AVERAGE(D18:D37)</f>
+        <v>0.87148437499999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eprop/result.xlsx
+++ b/eprop/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilove\Documents\GitHub\eprop-reinforcement-learning\eprop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E708B-15F5-43E7-826B-7A1BDD3C97ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898324C-A6D7-43FB-8E23-EB7C1D14E06A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>epoch = 16</t>
   </si>
@@ -122,6 +123,87 @@
   <si>
     <t>epoch = 50</t>
   </si>
+  <si>
+    <t>epoch = 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best acc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bias update = Yes
+(bias initialized to zero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best acc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bias update = Yes  
+(bias initialized randomly)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">best acc  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bias update = No
+(bias initialized to zero)</t>
+    </r>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
@@ -183,12 +265,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,6 +310,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,4 +1069,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B68F9-6C5C-43C6-8DC2-1C09F49E5F79}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.984375</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="12">
+        <v>0.97265625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.94921875</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12">
+        <v>0.98828125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.92578125</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.859375</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12">
+        <v>0.75390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.73828125</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.82421875</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.87109375</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12">
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.9453125</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.63671875</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12">
+        <v>0.87890625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>MAX(B3:B12)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="D14">
+        <f>MAX(D3:D12)</f>
+        <v>0.99609375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>